--- a/docs/pipelines/pipelines.xlsx
+++ b/docs/pipelines/pipelines.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Pipelines" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Roles" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="POC Proof Points" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tasks!$A$2:$F$2</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="168">
   <si>
     <t xml:space="preserve">Task List</t>
   </si>
@@ -280,11 +281,6 @@
                - Work on providing "rich" message detail.
                - Use message buttons</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://api.slack.com/docs/message-formatting
-https://api.slack.com/interactive-messages
-https://api.slack.com/docs/message-buttons</t>
   </si>
   <si>
     <r>
@@ -370,7 +366,29 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/rampatra/jbot</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/rampatra/jbot
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Slack Documentation:
+https://api.slack.com/docs/message-formatting
+https://api.slack.com/interactive-messages
+https://api.slack.com/docs/message-buttons</t>
+    </r>
   </si>
   <si>
     <r>
@@ -395,6 +413,35 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Our docs at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/cinnojam/AdvanvcedCICDPipeline/tree/master/docs/slack
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SlackModel.txt
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -409,8 +456,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> – 3.3. Create the SlashConfig file to pull slack properties from the env variables</t>
-    </r>
+      <t xml:space="preserve"> – 3.3. Create the SlackConfig file to pull slack properties from the env variables</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SlackConfig.txt</t>
   </si>
   <si>
     <r>
@@ -429,8 +479,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> – 3.4. Create the SlashRestController to support Incoming Webhooks, slash commands, and interactive messages</t>
-    </r>
+      <t xml:space="preserve"> – 3.4. Create the SlackRestController to support Incoming Webhooks, slash commands, and interactive messages</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Slack-WebHooks.txt</t>
   </si>
   <si>
     <r>
@@ -473,6 +526,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Slack-SlashCommands.txt</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="1"/>
@@ -493,6 +549,10 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Slack-InteractiveMessages.txt
+Slack-tunnel.txt</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="1"/>
@@ -644,6 +704,9 @@
   </si>
   <si>
     <t xml:space="preserve">Job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task – empty pipeline</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
@@ -676,6 +739,9 @@
     <t xml:space="preserve">mvn clean install</t>
   </si>
   <si>
+    <t xml:space="preserve">echo %GO_PIPELINE_NAME% __%GO_PIPELINE_COUNTER%__%GO_STAGE_NAME%</t>
+  </si>
+  <si>
     <t xml:space="preserve">create jar from github code</t>
   </si>
   <si>
@@ -793,8 +859,8 @@
 Developers</t>
   </si>
   <si>
-    <t xml:space="preserve">RequestForApproval
-* requires approval by Developer role prior to triggering jobs</t>
+    <t xml:space="preserve">ProjectTeamRequest4Approval
+* manual: requires approval by Developer</t>
   </si>
   <si>
     <t xml:space="preserve">Notification</t>
@@ -810,7 +876,7 @@
   </si>
   <si>
     <t xml:space="preserve">BusinessApproval
-* requires approval by Business role prior to triggering jobs</t>
+* manual: requires approval by Business role prior to triggering jobs</t>
   </si>
   <si>
     <t xml:space="preserve">Notification that a production deployment is happening</t>
@@ -861,12 +927,31 @@
     <t xml:space="preserve">docker push &lt;new prod tag&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">curl -X GET "http://localhost:8765/slack/webhook? pipeline=%GO_PIPELINE_NAME% &amp;instance=%GO_PIPELINE_COUNTER% &amp;stage=%GO_STAGE_NAME%"</t>
+  </si>
+  <si>
     <t xml:space="preserve">push the portfolio tag to docker hub</t>
   </si>
   <si>
     <t xml:space="preserve">push the security-rating tag to docker hub</t>
   </si>
   <si>
+    <t xml:space="preserve">curl -XGET
+"http://localhost:8765/slack/webhook?
+pipeline=%GO_PIPELINE_NAME%
+&amp;instance=%GO_PIPELINE_COUNTER%
+&amp;stage=%GO_STAGE_NAME%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* increase polling interval using:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrapper.java.additional.16=-Dcruise.material.update.interval=intervalInMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in &lt;gocd home&gt;/config/wrapper-server.conf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roles</t>
   </si>
   <si>
@@ -892,17 +977,102 @@
   </si>
   <si>
     <t xml:space="preserve">Business Approvers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POC Proof Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit Trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trace the origin of an item deployed to production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who approved a stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What, if any, changes were made to a pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business- and developer-friendly notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approvals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business friendly interface for notification and approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One approval for many deployable components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role based access to view, trigger, and change pipelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admins - all access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developers - Cant create/updates pipelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business - Can only see "production" pipeline, can approve the "Business Approval" stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditors - Read only access to all pipelines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD&quot;, &quot;H:MM\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -951,6 +1121,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -1016,11 +1197,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1086,10 +1267,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,11 +1286,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1109,11 +1298,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1201,8 +1398,8 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1211,7 +1408,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="54.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="65.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -1436,7 +1633,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1450,13 +1647,11 @@
         <v>43307.2916666667</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>15</v>
@@ -1472,7 +1667,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -1488,7 +1683,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>15</v>
@@ -1502,9 +1697,9 @@
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>15</v>
@@ -1517,18 +1712,20 @@
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
@@ -1544,11 +1741,13 @@
         <v>43307.2916666667</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>15</v>
@@ -1560,11 +1759,13 @@
         <v>43307.2916666667</v>
       </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>15</v>
@@ -1576,11 +1777,13 @@
         <v>43307.2916666667</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>15</v>
@@ -1592,11 +1795,13 @@
         <v>43307.2916666667</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>15</v>
@@ -1608,11 +1813,13 @@
         <v>43307.2916666667</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>15</v>
@@ -1624,11 +1831,13 @@
         <v>43307.2916666667</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="17" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>15</v>
@@ -1641,15 +1850,15 @@
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C28" s="11" t="n">
         <v>43306.2916666667</v>
@@ -1662,10 +1871,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C29" s="11" t="n">
         <v>43306.2916666667</v>
@@ -1678,10 +1887,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C30" s="11" t="n">
         <v>43306.2916666667</v>
@@ -1694,10 +1903,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C31" s="11" t="n">
         <v>43306.2916666667</v>
@@ -1710,10 +1919,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C32" s="11" t="n">
         <v>43306.2916666667</v>
@@ -1726,10 +1935,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C33" s="11" t="n">
         <v>43306.2916666667</v>
@@ -1739,7 +1948,7 @@
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,7 +2301,7 @@
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="17"/>
+      <c r="F77" s="19"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9"/>
@@ -2100,7 +2309,7 @@
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="17"/>
+      <c r="F78" s="19"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9"/>
@@ -2108,7 +2317,7 @@
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="17"/>
+      <c r="F79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9"/>
@@ -2124,7 +2333,7 @@
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="12"/>
-      <c r="F81" s="17"/>
+      <c r="F81" s="19"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9"/>
@@ -2132,7 +2341,7 @@
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="17"/>
+      <c r="F82" s="19"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9"/>
@@ -2140,7 +2349,7 @@
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="12"/>
-      <c r="F83" s="17"/>
+      <c r="F83" s="19"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9"/>
@@ -2148,7 +2357,7 @@
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="17"/>
+      <c r="F84" s="19"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9"/>
@@ -2156,7 +2365,7 @@
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="17"/>
+      <c r="F85" s="19"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9"/>
@@ -2188,7 +2397,7 @@
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="12"/>
-      <c r="F89" s="17"/>
+      <c r="F89" s="19"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9"/>
@@ -2196,7 +2405,7 @@
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="12"/>
-      <c r="F90" s="17"/>
+      <c r="F90" s="19"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9"/>
@@ -2204,7 +2413,7 @@
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="12"/>
-      <c r="F91" s="17"/>
+      <c r="F91" s="19"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9"/>
@@ -2265,7 +2474,7 @@
   </sheetData>
   <autoFilter ref="A2:F2"/>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" display="https://github.com/rampatra/jbot"/>
+    <hyperlink ref="F20" r:id="rId1" display="https://github.com/cinnojam/AdvanvcedCICDPipeline/tree/master/docs/slack"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2283,279 +2492,307 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K39"/>
+  <dimension ref="B2:L44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="26.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="61.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="46.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="18.38"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="18" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="18" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="26.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="61.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="20" width="46.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="20" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="20" width="18.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="20" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="20" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H2" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="13" t="s">
-        <v>46</v>
+      <c r="I2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="B3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="13"/>
+      <c r="G3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="13"/>
@@ -2563,149 +2800,165 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>80</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="13"/>
       <c r="C16" s="15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13"/>
@@ -2713,531 +2966,617 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>80</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G18" s="13"/>
       <c r="H18" s="13" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="13"/>
       <c r="C19" s="15"/>
       <c r="D19" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="13"/>
       <c r="C20" s="15"/>
       <c r="D20" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13"/>
       <c r="C21" s="15"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>63</v>
+        <v>101</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="21" t="s">
-        <v>97</v>
+      <c r="D23" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>63</v>
+        <v>105</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="21" t="s">
-        <v>101</v>
+      <c r="D26" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="K26" s="13" t="s">
-        <v>103</v>
+        <v>69</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="13"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>63</v>
+        <v>111</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>107</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G31" s="13"/>
       <c r="H31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>63</v>
+        <v>113</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>109</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G32" s="13"/>
       <c r="H32" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>63</v>
+        <v>115</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>111</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G33" s="13"/>
       <c r="H33" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>63</v>
+        <v>117</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>63</v>
+        <v>89</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>63</v>
+        <v>89</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>63</v>
+        <v>121</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>116</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G37" s="13"/>
       <c r="H37" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>63</v>
+        <v>122</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="E38" s="13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>63</v>
+        <v>125</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>119</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G39" s="13"/>
       <c r="H39" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>63</v>
+        <v>126</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="H2:J2"/>
+  <mergeCells count="43">
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
@@ -3252,8 +3591,8 @@
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B22:B39"/>
-    <mergeCell ref="C22:C39"/>
+    <mergeCell ref="B22:B40"/>
+    <mergeCell ref="C22:C40"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="F23:F25"/>
@@ -3262,6 +3601,7 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="J23:J25"/>
     <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="E26:E28"/>
     <mergeCell ref="F26:F28"/>
@@ -3270,14 +3610,19 @@
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
     <mergeCell ref="D29:D33"/>
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F40" r:id="rId1" display="curl -XGET&#10;&quot;http://localhost:8765/slack/webhook?&#10;pipeline=%GO_PIPELINE_NAME%&#10;&amp;instance=%GO_PIPELINE_COUNTER%&#10;&amp;stage=%GO_STAGE_NAME%&quot;"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3296,7 +3641,7 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3307,74 +3652,74 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>125</v>
+      <c r="B2" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
-        <v>127</v>
+      <c r="B4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="B5" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="23"/>
+      <c r="B6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3385,4 +3730,170 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="74.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/pipelines/pipelines.xlsx
+++ b/docs/pipelines/pipelines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjlyons\git\AdvanvcedCICDPipeline\docs\pipelines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="178">
   <si>
     <t>Task List</t>
   </si>
@@ -1041,27 +1041,10 @@
     </r>
   </si>
   <si>
-    <t>Chris/Justin</t>
-  </si>
-  <si>
     <t>Brad/Josh</t>
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <r>
-      <t>z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - 2. Containerize the GoCD application</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1137,6 +1120,37 @@
   <si>
     <t>docker pull gocd/gocd-server
 docker pull gocd/gocd-agent-alpine-3.5</t>
+  </si>
+  <si>
+    <t>JJ/CJ/BR/JS</t>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 4. Q&amp;A (5 mins)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 2. Containerize the GoCD application &amp; Slack Bot</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1244,7 +1258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -1303,6 +1317,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1664,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1879,7 +1896,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F12" s="13"/>
     </row>
@@ -1897,7 +1914,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F13" s="13"/>
     </row>
@@ -1915,7 +1932,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -1933,7 +1950,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F15" s="15"/>
     </row>
@@ -1951,13 +1968,13 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -1972,12 +1989,12 @@
         <v>134</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>15</v>
@@ -1995,7 +2012,7 @@
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>15</v>
@@ -2013,7 +2030,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>15</v>
@@ -2031,7 +2048,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>15</v>
@@ -2049,7 +2066,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>15</v>
@@ -2079,7 +2096,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" s="13"/>
     </row>
@@ -2097,7 +2114,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>24</v>
@@ -2111,7 +2128,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>26</v>
@@ -2131,7 +2148,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>28</v>
@@ -2151,7 +2168,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>30</v>
@@ -2171,7 +2188,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>30</v>
@@ -2191,7 +2208,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>33</v>
@@ -2211,7 +2228,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>35</v>
@@ -2231,7 +2248,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>35</v>
@@ -2251,7 +2268,7 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>38</v>
@@ -2323,16 +2340,16 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>43</v>
+      <c r="A37" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C37" s="11">
         <v>43306.291666666701</v>
@@ -2341,13 +2358,13 @@
         <v>43307.291666666701</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="13"/>
+        <v>175</v>
+      </c>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>45</v>
+      <c r="A38" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>44</v>
@@ -2358,20 +2375,28 @@
       <c r="D38" s="11">
         <v>43307.291666666701</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="13" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="11">
+        <v>43306.291666666701</v>
+      </c>
+      <c r="D39" s="11">
+        <v>43307.291666666701</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
@@ -2699,7 +2724,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
-      <c r="F80" s="15"/>
+      <c r="F80" s="13"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
@@ -2709,13 +2734,13 @@
       <c r="E81" s="12"/>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="19"/>
+      <c r="F82" s="15"/>
     </row>
     <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
@@ -2733,21 +2758,21 @@
       <c r="E84" s="12"/>
       <c r="F84" s="19"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="15"/>
-    </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F85" s="19"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="12"/>
-      <c r="F86" s="19"/>
+      <c r="F86" s="15"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
@@ -2781,13 +2806,13 @@
       <c r="E90" s="12"/>
       <c r="F90" s="19"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="12"/>
-      <c r="F91" s="15"/>
+      <c r="F91" s="19"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
@@ -2805,13 +2830,13 @@
       <c r="E93" s="12"/>
       <c r="F93" s="15"/>
     </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="12"/>
-      <c r="F94" s="19"/>
+      <c r="F94" s="15"/>
     </row>
     <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
@@ -2829,13 +2854,13 @@
       <c r="E96" s="12"/>
       <c r="F96" s="19"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="12"/>
-      <c r="F97" s="15"/>
+      <c r="F97" s="19"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
@@ -2884,6 +2909,14 @@
       <c r="D103" s="11"/>
       <c r="E103" s="12"/>
       <c r="F103" s="15"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2"/>
@@ -2921,11 +2954,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="13" t="s">
         <v>48</v>
       </c>
@@ -2964,13 +2997,13 @@
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -2997,9 +3030,9 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="13" t="s">
         <v>60</v>
       </c>
@@ -3024,9 +3057,9 @@
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="13" t="s">
         <v>70</v>
       </c>
@@ -3051,11 +3084,11 @@
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -3082,9 +3115,9 @@
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -3111,9 +3144,9 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -3140,13 +3173,13 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -3173,10 +3206,10 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -3200,10 +3233,10 @@
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="13" t="s">
         <v>83</v>
       </c>
@@ -3223,8 +3256,8 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="13" t="s">
         <v>85</v>
       </c>
@@ -3252,9 +3285,9 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -3281,9 +3314,9 @@
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="13" t="s">
         <v>70</v>
       </c>
@@ -3308,11 +3341,11 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="26"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="29" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -3339,10 +3372,10 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="26"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="26" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -3366,10 +3399,10 @@
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="13" t="s">
         <v>83</v>
       </c>
@@ -3389,8 +3422,8 @@
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="13" t="s">
         <v>85</v>
       </c>
@@ -3418,9 +3451,9 @@
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="26"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="26" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -3447,9 +3480,9 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="13" t="s">
         <v>70</v>
       </c>
@@ -3474,10 +3507,10 @@
       <c r="L21" s="13"/>
     </row>
     <row r="22" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="29" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -3509,135 +3542,135 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="28" t="s">
+      <c r="I23" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="26" t="s">
+      <c r="L23" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="28" t="s">
+      <c r="I26" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="27" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="28" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="26"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="28" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="26"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27" t="s">
         <v>76</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -3666,10 +3699,10 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27" t="s">
         <v>80</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -3695,10 +3728,10 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="13" t="s">
         <v>110</v>
       </c>
@@ -3720,10 +3753,10 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="13" t="s">
         <v>112</v>
       </c>
@@ -3745,10 +3778,10 @@
       </c>
     </row>
     <row r="33" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="13" t="s">
         <v>114</v>
       </c>
@@ -3770,12 +3803,12 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="13" t="s">
@@ -3801,10 +3834,10 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="13" t="s">
         <v>117</v>
       </c>
@@ -3826,12 +3859,12 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="27" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -3857,10 +3890,10 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27" t="s">
         <v>88</v>
       </c>
       <c r="F37" s="13" t="s">
@@ -3884,12 +3917,12 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="27" t="s">
         <v>70</v>
       </c>
       <c r="F38" s="13" t="s">
@@ -3915,10 +3948,10 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="13" t="s">
         <v>121</v>
       </c>
@@ -3940,10 +3973,10 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="16" t="s">
         <v>125</v>
       </c>
